--- a/StructureDefinition-hc-encounter.xlsx
+++ b/StructureDefinition-hc-encounter.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="432">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="431">
   <si>
     <t>Path</t>
   </si>
@@ -340,14 +340,11 @@
     <t>display</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {display}
+    <t xml:space="preserve">Extension {https://healthconnect.institute/StructureDefinition/hc-display}
 </t>
   </si>
   <si>
-    <t>Display name for canonical reference</t>
-  </si>
-  <si>
-    <t>The title or other name to display when referencing a resource by canonical URL.</t>
+    <t>Display value to use on element</t>
   </si>
   <si>
     <t xml:space="preserve">ele-1
@@ -2459,7 +2456,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F9" t="s" s="2">
         <v>42</v>
@@ -2556,7 +2553,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
         <v>94</v>
       </c>
@@ -2568,28 +2565,28 @@
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="F10" t="s" s="2">
         <v>50</v>
       </c>
       <c r="G10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="H10" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="I10" t="s" s="2">
         <v>51</v>
-      </c>
-      <c r="H10" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="I10" t="s" s="2">
-        <v>43</v>
       </c>
       <c r="J10" t="s" s="2">
         <v>103</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>96</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>104</v>
-      </c>
-      <c r="L10" t="s" s="2">
-        <v>105</v>
       </c>
       <c r="M10" s="2"/>
       <c r="N10" s="2"/>
@@ -2649,7 +2646,7 @@
         <v>42</v>
       </c>
       <c r="AH10" t="s" s="2">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="AI10" t="s" s="2">
         <v>101</v>
@@ -2669,11 +2666,11 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" t="s" s="2">
@@ -2695,16 +2692,16 @@
         <v>95</v>
       </c>
       <c r="K11" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="L11" t="s" s="2">
+      <c r="M11" t="s" s="2">
         <v>110</v>
       </c>
-      <c r="M11" t="s" s="2">
+      <c r="N11" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O11" t="s" s="2">
         <v>43</v>
@@ -2753,7 +2750,7 @@
         <v>43</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>41</v>
@@ -2782,7 +2779,7 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -2805,13 +2802,13 @@
         <v>51</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>114</v>
+      </c>
+      <c r="K12" t="s" s="2">
         <v>115</v>
       </c>
-      <c r="K12" t="s" s="2">
+      <c r="L12" t="s" s="2">
         <v>116</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>117</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -2862,7 +2859,7 @@
         <v>43</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>41</v>
@@ -2877,21 +2874,21 @@
         <v>62</v>
       </c>
       <c r="AJ12" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="AK12" t="s" s="2">
         <v>118</v>
       </c>
-      <c r="AK12" t="s" s="2">
+      <c r="AL12" t="s" s="2">
         <v>119</v>
       </c>
-      <c r="AL12" t="s" s="2">
+      <c r="AM12" t="s" s="2">
         <v>120</v>
-      </c>
-      <c r="AM12" t="s" s="2">
-        <v>121</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2917,13 +2914,13 @@
         <v>70</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>123</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>124</v>
-      </c>
-      <c r="M13" t="s" s="2">
-        <v>125</v>
       </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
@@ -2949,14 +2946,14 @@
         <v>43</v>
       </c>
       <c r="W13" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X13" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X13" t="s" s="2">
+      <c r="Y13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y13" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="Z13" t="s" s="2">
         <v>43</v>
       </c>
@@ -2973,7 +2970,7 @@
         <v>43</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>50</v>
@@ -2988,21 +2985,21 @@
         <v>62</v>
       </c>
       <c r="AJ13" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="AK13" t="s" s="2">
         <v>129</v>
       </c>
-      <c r="AK13" t="s" s="2">
+      <c r="AL13" t="s" s="2">
         <v>130</v>
       </c>
-      <c r="AL13" t="s" s="2">
+      <c r="AM13" t="s" s="2">
         <v>131</v>
-      </c>
-      <c r="AM13" t="s" s="2">
-        <v>132</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -3025,16 +3022,16 @@
         <v>43</v>
       </c>
       <c r="J14" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="K14" t="s" s="2">
         <v>134</v>
       </c>
-      <c r="K14" t="s" s="2">
+      <c r="L14" t="s" s="2">
         <v>135</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>136</v>
-      </c>
-      <c r="M14" t="s" s="2">
-        <v>137</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" t="s" s="2">
@@ -3084,7 +3081,7 @@
         <v>43</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>41</v>
@@ -3102,7 +3099,7 @@
         <v>43</v>
       </c>
       <c r="AK14" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL14" t="s" s="2">
         <v>43</v>
@@ -3113,7 +3110,7 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3139,10 +3136,10 @@
         <v>52</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L15" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -3193,7 +3190,7 @@
         <v>43</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>41</v>
@@ -3211,7 +3208,7 @@
         <v>43</v>
       </c>
       <c r="AK15" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL15" t="s" s="2">
         <v>43</v>
@@ -3222,11 +3219,11 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
@@ -3248,13 +3245,13 @@
         <v>95</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L16" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M16" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N16" s="2"/>
       <c r="O16" t="s" s="2">
@@ -3304,7 +3301,7 @@
         <v>43</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>41</v>
@@ -3322,7 +3319,7 @@
         <v>43</v>
       </c>
       <c r="AK16" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL16" t="s" s="2">
         <v>43</v>
@@ -3333,11 +3330,11 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" t="s" s="2">
@@ -3359,16 +3356,16 @@
         <v>95</v>
       </c>
       <c r="K17" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L17" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L17" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M17" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O17" t="s" s="2">
         <v>43</v>
@@ -3417,7 +3414,7 @@
         <v>43</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>41</v>
@@ -3446,7 +3443,7 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3472,10 +3469,10 @@
         <v>70</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>122</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>123</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -3502,14 +3499,14 @@
         <v>43</v>
       </c>
       <c r="W18" t="s" s="2">
+        <v>125</v>
+      </c>
+      <c r="X18" t="s" s="2">
         <v>126</v>
       </c>
-      <c r="X18" t="s" s="2">
+      <c r="Y18" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="Y18" t="s" s="2">
-        <v>128</v>
-      </c>
       <c r="Z18" t="s" s="2">
         <v>43</v>
       </c>
@@ -3526,7 +3523,7 @@
         <v>43</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>50</v>
@@ -3544,7 +3541,7 @@
         <v>43</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL18" t="s" s="2">
         <v>43</v>
@@ -3555,7 +3552,7 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3578,13 +3575,13 @@
         <v>43</v>
       </c>
       <c r="J19" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="K19" t="s" s="2">
         <v>154</v>
       </c>
-      <c r="K19" t="s" s="2">
+      <c r="L19" t="s" s="2">
         <v>155</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -3635,7 +3632,7 @@
         <v>43</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>50</v>
@@ -3653,7 +3650,7 @@
         <v>43</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL19" t="s" s="2">
         <v>43</v>
@@ -3664,7 +3661,7 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3687,13 +3684,13 @@
         <v>51</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K20" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="K20" t="s" s="2">
+      <c r="L20" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -3720,14 +3717,14 @@
         <v>43</v>
       </c>
       <c r="W20" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X20" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X20" t="s" s="2">
+      <c r="Y20" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y20" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z20" t="s" s="2">
         <v>43</v>
       </c>
@@ -3744,7 +3741,7 @@
         <v>43</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>50</v>
@@ -3762,18 +3759,18 @@
         <v>43</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>163</v>
+      </c>
+      <c r="AL20" t="s" s="2">
         <v>164</v>
       </c>
-      <c r="AL20" t="s" s="2">
+      <c r="AM20" t="s" s="2">
         <v>165</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>166</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -3796,13 +3793,13 @@
         <v>43</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>168</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>169</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3853,7 +3850,7 @@
         <v>43</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>41</v>
@@ -3871,7 +3868,7 @@
         <v>43</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>43</v>
@@ -3882,7 +3879,7 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3908,10 +3905,10 @@
         <v>52</v>
       </c>
       <c r="K22" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L22" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -3962,7 +3959,7 @@
         <v>43</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>41</v>
@@ -3980,7 +3977,7 @@
         <v>43</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>43</v>
@@ -3991,11 +3988,11 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
@@ -4017,13 +4014,13 @@
         <v>95</v>
       </c>
       <c r="K23" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L23" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L23" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M23" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
@@ -4073,7 +4070,7 @@
         <v>43</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>41</v>
@@ -4091,7 +4088,7 @@
         <v>43</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>43</v>
@@ -4102,11 +4099,11 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D24" s="2"/>
       <c r="E24" t="s" s="2">
@@ -4128,16 +4125,16 @@
         <v>95</v>
       </c>
       <c r="K24" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L24" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L24" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M24" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N24" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O24" t="s" s="2">
         <v>43</v>
@@ -4186,7 +4183,7 @@
         <v>43</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>41</v>
@@ -4215,7 +4212,7 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4238,13 +4235,13 @@
         <v>43</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>173</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>174</v>
-      </c>
-      <c r="L25" t="s" s="2">
-        <v>175</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4271,14 +4268,14 @@
         <v>43</v>
       </c>
       <c r="W25" t="s" s="2">
+        <v>160</v>
+      </c>
+      <c r="X25" t="s" s="2">
         <v>161</v>
       </c>
-      <c r="X25" t="s" s="2">
+      <c r="Y25" t="s" s="2">
         <v>162</v>
       </c>
-      <c r="Y25" t="s" s="2">
-        <v>163</v>
-      </c>
       <c r="Z25" t="s" s="2">
         <v>43</v>
       </c>
@@ -4295,7 +4292,7 @@
         <v>43</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>50</v>
@@ -4313,7 +4310,7 @@
         <v>43</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>43</v>
@@ -4324,7 +4321,7 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4347,13 +4344,13 @@
         <v>43</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K26" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="L26" t="s" s="2">
         <v>177</v>
-      </c>
-      <c r="L26" t="s" s="2">
-        <v>178</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4404,7 +4401,7 @@
         <v>43</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>50</v>
@@ -4422,7 +4419,7 @@
         <v>43</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL26" t="s" s="2">
         <v>43</v>
@@ -4433,7 +4430,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4456,16 +4453,16 @@
         <v>51</v>
       </c>
       <c r="J27" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="K27" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="K27" t="s" s="2">
+      <c r="L27" t="s" s="2">
         <v>181</v>
       </c>
-      <c r="L27" t="s" s="2">
+      <c r="M27" t="s" s="2">
         <v>182</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
@@ -4491,14 +4488,14 @@
         <v>43</v>
       </c>
       <c r="W27" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="X27" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="X27" t="s" s="2">
+      <c r="Y27" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="Y27" t="s" s="2">
-        <v>186</v>
-      </c>
       <c r="Z27" t="s" s="2">
         <v>43</v>
       </c>
@@ -4515,7 +4512,7 @@
         <v>43</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4530,21 +4527,21 @@
         <v>62</v>
       </c>
       <c r="AJ27" t="s" s="2">
+        <v>186</v>
+      </c>
+      <c r="AK27" t="s" s="2">
         <v>187</v>
       </c>
-      <c r="AK27" t="s" s="2">
+      <c r="AL27" t="s" s="2">
+        <v>164</v>
+      </c>
+      <c r="AM27" t="s" s="2">
         <v>188</v>
-      </c>
-      <c r="AL27" t="s" s="2">
-        <v>165</v>
-      </c>
-      <c r="AM27" t="s" s="2">
-        <v>189</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4567,13 +4564,13 @@
         <v>51</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K28" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L28" t="s" s="2">
         <v>191</v>
-      </c>
-      <c r="L28" t="s" s="2">
-        <v>192</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4600,14 +4597,14 @@
         <v>43</v>
       </c>
       <c r="W28" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X28" t="s" s="2">
+        <v>192</v>
+      </c>
+      <c r="Y28" t="s" s="2">
         <v>193</v>
       </c>
-      <c r="Y28" t="s" s="2">
-        <v>194</v>
-      </c>
       <c r="Z28" t="s" s="2">
         <v>43</v>
       </c>
@@ -4624,7 +4621,7 @@
         <v>43</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>41</v>
@@ -4639,21 +4636,21 @@
         <v>62</v>
       </c>
       <c r="AJ28" t="s" s="2">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="AK28" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL28" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4676,13 +4673,13 @@
         <v>43</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K29" t="s" s="2">
+        <v>196</v>
+      </c>
+      <c r="L29" t="s" s="2">
         <v>197</v>
-      </c>
-      <c r="L29" t="s" s="2">
-        <v>198</v>
       </c>
       <c r="M29" s="2"/>
       <c r="N29" s="2"/>
@@ -4709,14 +4706,14 @@
         <v>43</v>
       </c>
       <c r="W29" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X29" t="s" s="2">
+        <v>197</v>
+      </c>
+      <c r="Y29" t="s" s="2">
         <v>198</v>
       </c>
-      <c r="Y29" t="s" s="2">
-        <v>199</v>
-      </c>
       <c r="Z29" t="s" s="2">
         <v>43</v>
       </c>
@@ -4733,7 +4730,7 @@
         <v>43</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>41</v>
@@ -4751,22 +4748,22 @@
         <v>43</v>
       </c>
       <c r="AK29" t="s" s="2">
+        <v>199</v>
+      </c>
+      <c r="AL29" t="s" s="2">
         <v>200</v>
       </c>
-      <c r="AL29" t="s" s="2">
+      <c r="AM29" t="s" s="2">
         <v>201</v>
-      </c>
-      <c r="AM29" t="s" s="2">
-        <v>202</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4785,16 +4782,16 @@
         <v>51</v>
       </c>
       <c r="J30" t="s" s="2">
+        <v>204</v>
+      </c>
+      <c r="K30" t="s" s="2">
         <v>205</v>
       </c>
-      <c r="K30" t="s" s="2">
+      <c r="L30" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="L30" t="s" s="2">
+      <c r="M30" t="s" s="2">
         <v>207</v>
-      </c>
-      <c r="M30" t="s" s="2">
-        <v>208</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" t="s" s="2">
@@ -4844,7 +4841,7 @@
         <v>43</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>41</v>
@@ -4859,21 +4856,21 @@
         <v>62</v>
       </c>
       <c r="AJ30" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="AK30" t="s" s="2">
         <v>209</v>
       </c>
-      <c r="AK30" t="s" s="2">
+      <c r="AL30" t="s" s="2">
         <v>210</v>
       </c>
-      <c r="AL30" t="s" s="2">
+      <c r="AM30" t="s" s="2">
         <v>211</v>
-      </c>
-      <c r="AM30" t="s" s="2">
-        <v>212</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4896,13 +4893,13 @@
         <v>51</v>
       </c>
       <c r="J31" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="K31" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="K31" t="s" s="2">
+      <c r="L31" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="L31" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4953,7 +4950,7 @@
         <v>43</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>41</v>
@@ -4968,25 +4965,25 @@
         <v>62</v>
       </c>
       <c r="AJ31" t="s" s="2">
+        <v>216</v>
+      </c>
+      <c r="AK31" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="AL31" t="s" s="2">
         <v>217</v>
       </c>
-      <c r="AK31" t="s" s="2">
-        <v>138</v>
-      </c>
-      <c r="AL31" t="s" s="2">
+      <c r="AM31" t="s" s="2">
         <v>218</v>
-      </c>
-      <c r="AM31" t="s" s="2">
-        <v>219</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" t="s" s="2">
@@ -5005,13 +5002,13 @@
         <v>43</v>
       </c>
       <c r="J32" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="K32" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="K32" t="s" s="2">
+      <c r="L32" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="L32" t="s" s="2">
-        <v>224</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5062,7 +5059,7 @@
         <v>43</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -5077,10 +5074,10 @@
         <v>62</v>
       </c>
       <c r="AJ32" t="s" s="2">
+        <v>224</v>
+      </c>
+      <c r="AK32" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AK32" t="s" s="2">
-        <v>226</v>
       </c>
       <c r="AL32" t="s" s="2">
         <v>43</v>
@@ -5091,7 +5088,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5114,13 +5111,13 @@
         <v>51</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K33" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L33" t="s" s="2">
         <v>228</v>
-      </c>
-      <c r="L33" t="s" s="2">
-        <v>229</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5171,7 +5168,7 @@
         <v>43</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -5186,21 +5183,21 @@
         <v>62</v>
       </c>
       <c r="AJ33" t="s" s="2">
+        <v>229</v>
+      </c>
+      <c r="AK33" t="s" s="2">
         <v>230</v>
       </c>
-      <c r="AK33" t="s" s="2">
+      <c r="AL33" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM33" t="s" s="2">
         <v>231</v>
-      </c>
-      <c r="AL33" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM33" t="s" s="2">
-        <v>232</v>
       </c>
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -5226,10 +5223,10 @@
         <v>52</v>
       </c>
       <c r="K34" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L34" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L34" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5280,7 +5277,7 @@
         <v>43</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -5298,7 +5295,7 @@
         <v>43</v>
       </c>
       <c r="AK34" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL34" t="s" s="2">
         <v>43</v>
@@ -5309,11 +5306,11 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" t="s" s="2">
@@ -5335,13 +5332,13 @@
         <v>95</v>
       </c>
       <c r="K35" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L35" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L35" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M35" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
@@ -5391,7 +5388,7 @@
         <v>43</v>
       </c>
       <c r="AE35" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF35" t="s" s="2">
         <v>41</v>
@@ -5409,7 +5406,7 @@
         <v>43</v>
       </c>
       <c r="AK35" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL35" t="s" s="2">
         <v>43</v>
@@ -5420,11 +5417,11 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5446,16 +5443,16 @@
         <v>95</v>
       </c>
       <c r="K36" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L36" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L36" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M36" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N36" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O36" t="s" s="2">
         <v>43</v>
@@ -5504,7 +5501,7 @@
         <v>43</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>41</v>
@@ -5533,7 +5530,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5556,16 +5553,16 @@
         <v>51</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K37" t="s" s="2">
+        <v>236</v>
+      </c>
+      <c r="L37" t="s" s="2">
         <v>237</v>
       </c>
-      <c r="L37" t="s" s="2">
+      <c r="M37" t="s" s="2">
         <v>238</v>
-      </c>
-      <c r="M37" t="s" s="2">
-        <v>239</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" t="s" s="2">
@@ -5591,13 +5588,13 @@
         <v>43</v>
       </c>
       <c r="W37" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="X37" t="s" s="2">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="Y37" t="s" s="2">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="Z37" t="s" s="2">
         <v>43</v>
@@ -5615,7 +5612,7 @@
         <v>43</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>41</v>
@@ -5630,21 +5627,21 @@
         <v>62</v>
       </c>
       <c r="AJ37" t="s" s="2">
+        <v>240</v>
+      </c>
+      <c r="AK37" t="s" s="2">
         <v>241</v>
       </c>
-      <c r="AK37" t="s" s="2">
+      <c r="AL37" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM37" t="s" s="2">
         <v>242</v>
-      </c>
-      <c r="AL37" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM37" t="s" s="2">
-        <v>243</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5667,13 +5664,13 @@
         <v>43</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K38" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="L38" t="s" s="2">
         <v>245</v>
-      </c>
-      <c r="L38" t="s" s="2">
-        <v>246</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5724,7 +5721,7 @@
         <v>43</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5742,18 +5739,18 @@
         <v>43</v>
       </c>
       <c r="AK38" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="AL38" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM38" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="AL38" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM38" t="s" s="2">
-        <v>248</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5776,13 +5773,13 @@
         <v>51</v>
       </c>
       <c r="J39" t="s" s="2">
+        <v>249</v>
+      </c>
+      <c r="K39" t="s" s="2">
         <v>250</v>
       </c>
-      <c r="K39" t="s" s="2">
+      <c r="L39" t="s" s="2">
         <v>251</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>252</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5833,7 +5830,7 @@
         <v>43</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5848,21 +5845,21 @@
         <v>62</v>
       </c>
       <c r="AJ39" t="s" s="2">
+        <v>252</v>
+      </c>
+      <c r="AK39" t="s" s="2">
         <v>253</v>
       </c>
-      <c r="AK39" t="s" s="2">
+      <c r="AL39" t="s" s="2">
         <v>254</v>
       </c>
-      <c r="AL39" t="s" s="2">
+      <c r="AM39" t="s" s="2">
         <v>255</v>
-      </c>
-      <c r="AM39" t="s" s="2">
-        <v>256</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5885,13 +5882,13 @@
         <v>51</v>
       </c>
       <c r="J40" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="K40" t="s" s="2">
         <v>258</v>
       </c>
-      <c r="K40" t="s" s="2">
+      <c r="L40" t="s" s="2">
         <v>259</v>
-      </c>
-      <c r="L40" t="s" s="2">
-        <v>260</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5942,7 +5939,7 @@
         <v>43</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5957,21 +5954,21 @@
         <v>62</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="AK40" t="s" s="2">
+        <v>260</v>
+      </c>
+      <c r="AL40" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM40" t="s" s="2">
         <v>261</v>
-      </c>
-      <c r="AL40" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM40" t="s" s="2">
-        <v>262</v>
       </c>
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5994,16 +5991,16 @@
         <v>43</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K41" t="s" s="2">
+        <v>263</v>
+      </c>
+      <c r="L41" t="s" s="2">
         <v>264</v>
       </c>
-      <c r="L41" t="s" s="2">
+      <c r="M41" t="s" s="2">
         <v>265</v>
-      </c>
-      <c r="M41" t="s" s="2">
-        <v>266</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
@@ -6053,7 +6050,7 @@
         <v>43</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>41</v>
@@ -6068,21 +6065,21 @@
         <v>62</v>
       </c>
       <c r="AJ41" t="s" s="2">
+        <v>266</v>
+      </c>
+      <c r="AK41" t="s" s="2">
         <v>267</v>
       </c>
-      <c r="AK41" t="s" s="2">
+      <c r="AL41" t="s" s="2">
         <v>268</v>
       </c>
-      <c r="AL41" t="s" s="2">
+      <c r="AM41" t="s" s="2">
         <v>269</v>
-      </c>
-      <c r="AM41" t="s" s="2">
-        <v>270</v>
       </c>
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6105,16 +6102,16 @@
         <v>43</v>
       </c>
       <c r="J42" t="s" s="2">
+        <v>271</v>
+      </c>
+      <c r="K42" t="s" s="2">
         <v>272</v>
       </c>
-      <c r="K42" t="s" s="2">
+      <c r="L42" t="s" s="2">
         <v>273</v>
       </c>
-      <c r="L42" t="s" s="2">
+      <c r="M42" t="s" s="2">
         <v>274</v>
-      </c>
-      <c r="M42" t="s" s="2">
-        <v>275</v>
       </c>
       <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
@@ -6164,7 +6161,7 @@
         <v>43</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>41</v>
@@ -6179,25 +6176,25 @@
         <v>62</v>
       </c>
       <c r="AJ42" t="s" s="2">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AK42" t="s" s="2">
+        <v>275</v>
+      </c>
+      <c r="AL42" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM42" t="s" s="2">
         <v>276</v>
-      </c>
-      <c r="AL42" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM42" t="s" s="2">
-        <v>277</v>
       </c>
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
@@ -6216,16 +6213,16 @@
         <v>51</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K43" t="s" s="2">
+        <v>279</v>
+      </c>
+      <c r="L43" t="s" s="2">
         <v>280</v>
       </c>
-      <c r="L43" t="s" s="2">
+      <c r="M43" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M43" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
@@ -6254,11 +6251,11 @@
         <v>74</v>
       </c>
       <c r="X43" t="s" s="2">
+        <v>282</v>
+      </c>
+      <c r="Y43" t="s" s="2">
         <v>283</v>
       </c>
-      <c r="Y43" t="s" s="2">
-        <v>284</v>
-      </c>
       <c r="Z43" t="s" s="2">
         <v>43</v>
       </c>
@@ -6275,7 +6272,7 @@
         <v>43</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>41</v>
@@ -6290,25 +6287,25 @@
         <v>62</v>
       </c>
       <c r="AJ43" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK43" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK43" t="s" s="2">
+      <c r="AL43" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL43" t="s" s="2">
+      <c r="AM43" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM43" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6327,16 +6324,16 @@
         <v>51</v>
       </c>
       <c r="J44" t="s" s="2">
+        <v>289</v>
+      </c>
+      <c r="K44" t="s" s="2">
         <v>290</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>291</v>
-      </c>
       <c r="L44" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="M44" t="s" s="2">
         <v>281</v>
-      </c>
-      <c r="M44" t="s" s="2">
-        <v>282</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" t="s" s="2">
@@ -6386,7 +6383,7 @@
         <v>43</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>41</v>
@@ -6401,21 +6398,21 @@
         <v>62</v>
       </c>
       <c r="AJ44" t="s" s="2">
+        <v>284</v>
+      </c>
+      <c r="AK44" t="s" s="2">
         <v>285</v>
       </c>
-      <c r="AK44" t="s" s="2">
+      <c r="AL44" t="s" s="2">
         <v>286</v>
       </c>
-      <c r="AL44" t="s" s="2">
+      <c r="AM44" t="s" s="2">
         <v>287</v>
-      </c>
-      <c r="AM44" t="s" s="2">
-        <v>288</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6438,13 +6435,13 @@
         <v>51</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K45" t="s" s="2">
+        <v>292</v>
+      </c>
+      <c r="L45" t="s" s="2">
         <v>293</v>
-      </c>
-      <c r="L45" t="s" s="2">
-        <v>294</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6495,7 +6492,7 @@
         <v>43</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>41</v>
@@ -6513,7 +6510,7 @@
         <v>43</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="AL45" t="s" s="2">
         <v>43</v>
@@ -6524,7 +6521,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6550,10 +6547,10 @@
         <v>52</v>
       </c>
       <c r="K46" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L46" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L46" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6604,7 +6601,7 @@
         <v>43</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6622,7 +6619,7 @@
         <v>43</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL46" t="s" s="2">
         <v>43</v>
@@ -6633,11 +6630,11 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
@@ -6659,13 +6656,13 @@
         <v>95</v>
       </c>
       <c r="K47" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L47" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L47" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M47" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6715,7 +6712,7 @@
         <v>43</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6733,7 +6730,7 @@
         <v>43</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL47" t="s" s="2">
         <v>43</v>
@@ -6744,11 +6741,11 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D48" s="2"/>
       <c r="E48" t="s" s="2">
@@ -6770,16 +6767,16 @@
         <v>95</v>
       </c>
       <c r="K48" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L48" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L48" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M48" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N48" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>43</v>
@@ -6828,7 +6825,7 @@
         <v>43</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6857,11 +6854,11 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" t="s" s="2">
@@ -6880,16 +6877,16 @@
         <v>51</v>
       </c>
       <c r="J49" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="K49" t="s" s="2">
         <v>301</v>
       </c>
-      <c r="K49" t="s" s="2">
+      <c r="L49" t="s" s="2">
         <v>302</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>303</v>
-      </c>
       <c r="M49" t="s" s="2">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6939,7 +6936,7 @@
         <v>43</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>50</v>
@@ -6954,21 +6951,21 @@
         <v>62</v>
       </c>
       <c r="AJ49" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="AK49" t="s" s="2">
         <v>304</v>
       </c>
-      <c r="AK49" t="s" s="2">
+      <c r="AL49" t="s" s="2">
+        <v>286</v>
+      </c>
+      <c r="AM49" t="s" s="2">
         <v>305</v>
-      </c>
-      <c r="AL49" t="s" s="2">
-        <v>287</v>
-      </c>
-      <c r="AM49" t="s" s="2">
-        <v>306</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6991,13 +6988,13 @@
         <v>43</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>307</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="L50" t="s" s="2">
-        <v>309</v>
       </c>
       <c r="M50" s="2"/>
       <c r="N50" s="2"/>
@@ -7027,11 +7024,11 @@
         <v>74</v>
       </c>
       <c r="X50" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="Y50" t="s" s="2">
         <v>310</v>
       </c>
-      <c r="Y50" t="s" s="2">
-        <v>311</v>
-      </c>
       <c r="Z50" t="s" s="2">
         <v>43</v>
       </c>
@@ -7048,7 +7045,7 @@
         <v>43</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -7066,7 +7063,7 @@
         <v>43</v>
       </c>
       <c r="AK50" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL50" t="s" s="2">
         <v>43</v>
@@ -7077,7 +7074,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -7100,13 +7097,13 @@
         <v>43</v>
       </c>
       <c r="J51" t="s" s="2">
+        <v>312</v>
+      </c>
+      <c r="K51" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="K51" t="s" s="2">
+      <c r="L51" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="L51" t="s" s="2">
-        <v>315</v>
       </c>
       <c r="M51" s="2"/>
       <c r="N51" s="2"/>
@@ -7157,7 +7154,7 @@
         <v>43</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -7175,7 +7172,7 @@
         <v>43</v>
       </c>
       <c r="AK51" t="s" s="2">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="AL51" t="s" s="2">
         <v>43</v>
@@ -7186,7 +7183,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7209,16 +7206,16 @@
         <v>43</v>
       </c>
       <c r="J52" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="K52" t="s" s="2">
         <v>318</v>
       </c>
-      <c r="K52" t="s" s="2">
+      <c r="L52" t="s" s="2">
         <v>319</v>
       </c>
-      <c r="L52" t="s" s="2">
+      <c r="M52" t="s" s="2">
         <v>320</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>321</v>
       </c>
       <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
@@ -7268,7 +7265,7 @@
         <v>43</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -7286,7 +7283,7 @@
         <v>43</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="AL52" t="s" s="2">
         <v>43</v>
@@ -7297,7 +7294,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7320,16 +7317,16 @@
         <v>43</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K53" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="L53" t="s" s="2">
         <v>324</v>
       </c>
-      <c r="L53" t="s" s="2">
+      <c r="M53" t="s" s="2">
         <v>325</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>326</v>
       </c>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
@@ -7379,7 +7376,7 @@
         <v>43</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>41</v>
@@ -7397,7 +7394,7 @@
         <v>43</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="AL53" t="s" s="2">
         <v>43</v>
@@ -7408,7 +7405,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7434,10 +7431,10 @@
         <v>52</v>
       </c>
       <c r="K54" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L54" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L54" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7488,7 +7485,7 @@
         <v>43</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>41</v>
@@ -7506,7 +7503,7 @@
         <v>43</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL54" t="s" s="2">
         <v>43</v>
@@ -7517,11 +7514,11 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" t="s" s="2">
@@ -7543,13 +7540,13 @@
         <v>95</v>
       </c>
       <c r="K55" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L55" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L55" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M55" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
@@ -7599,7 +7596,7 @@
         <v>43</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>41</v>
@@ -7617,7 +7614,7 @@
         <v>43</v>
       </c>
       <c r="AK55" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL55" t="s" s="2">
         <v>43</v>
@@ -7628,11 +7625,11 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" t="s" s="2">
@@ -7654,16 +7651,16 @@
         <v>95</v>
       </c>
       <c r="K56" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L56" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L56" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M56" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N56" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O56" t="s" s="2">
         <v>43</v>
@@ -7712,7 +7709,7 @@
         <v>43</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>41</v>
@@ -7741,7 +7738,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7764,13 +7761,13 @@
         <v>43</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="K57" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="L57" t="s" s="2">
         <v>332</v>
-      </c>
-      <c r="L57" t="s" s="2">
-        <v>333</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7821,7 +7818,7 @@
         <v>43</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>41</v>
@@ -7839,18 +7836,18 @@
         <v>43</v>
       </c>
       <c r="AK57" t="s" s="2">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AL57" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM57" t="s" s="2">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7873,13 +7870,13 @@
         <v>43</v>
       </c>
       <c r="J58" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="K58" t="s" s="2">
         <v>336</v>
       </c>
-      <c r="K58" t="s" s="2">
+      <c r="L58" t="s" s="2">
         <v>337</v>
-      </c>
-      <c r="L58" t="s" s="2">
-        <v>338</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7930,7 +7927,7 @@
         <v>43</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>
@@ -7948,7 +7945,7 @@
         <v>43</v>
       </c>
       <c r="AK58" t="s" s="2">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="AL58" t="s" s="2">
         <v>43</v>
@@ -7959,7 +7956,7 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7982,13 +7979,13 @@
         <v>43</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K59" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="L59" t="s" s="2">
         <v>341</v>
-      </c>
-      <c r="L59" t="s" s="2">
-        <v>342</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -8018,11 +8015,11 @@
         <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
+        <v>342</v>
+      </c>
+      <c r="Y59" t="s" s="2">
         <v>343</v>
       </c>
-      <c r="Y59" t="s" s="2">
-        <v>344</v>
-      </c>
       <c r="Z59" t="s" s="2">
         <v>43</v>
       </c>
@@ -8039,7 +8036,7 @@
         <v>43</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>41</v>
@@ -8057,18 +8054,18 @@
         <v>43</v>
       </c>
       <c r="AK59" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="AL59" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM59" t="s" s="2">
         <v>345</v>
-      </c>
-      <c r="AL59" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM59" t="s" s="2">
-        <v>346</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8091,13 +8088,13 @@
         <v>43</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K60" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L60" t="s" s="2">
         <v>348</v>
-      </c>
-      <c r="L60" t="s" s="2">
-        <v>349</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8124,14 +8121,14 @@
         <v>43</v>
       </c>
       <c r="W60" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X60" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="Y60" t="s" s="2">
         <v>350</v>
       </c>
-      <c r="Y60" t="s" s="2">
-        <v>351</v>
-      </c>
       <c r="Z60" t="s" s="2">
         <v>43</v>
       </c>
@@ -8148,7 +8145,7 @@
         <v>43</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>41</v>
@@ -8166,18 +8163,18 @@
         <v>43</v>
       </c>
       <c r="AK60" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL60" t="s" s="2">
         <v>43</v>
       </c>
       <c r="AM60" t="s" s="2">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8200,19 +8197,19 @@
         <v>43</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K61" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="L61" t="s" s="2">
         <v>354</v>
       </c>
-      <c r="L61" t="s" s="2">
+      <c r="M61" t="s" s="2">
         <v>355</v>
       </c>
-      <c r="M61" t="s" s="2">
+      <c r="N61" t="s" s="2">
         <v>356</v>
-      </c>
-      <c r="N61" t="s" s="2">
-        <v>357</v>
       </c>
       <c r="O61" t="s" s="2">
         <v>43</v>
@@ -8237,14 +8234,14 @@
         <v>43</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X61" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="Y61" t="s" s="2">
         <v>358</v>
       </c>
-      <c r="Y61" t="s" s="2">
-        <v>359</v>
-      </c>
       <c r="Z61" t="s" s="2">
         <v>43</v>
       </c>
@@ -8261,7 +8258,7 @@
         <v>43</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>41</v>
@@ -8279,18 +8276,18 @@
         <v>43</v>
       </c>
       <c r="AK61" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="AL61" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM61" t="s" s="2">
         <v>360</v>
-      </c>
-      <c r="AL61" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM61" t="s" s="2">
-        <v>361</v>
       </c>
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" t="s" s="2">
@@ -8313,13 +8310,13 @@
         <v>43</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K62" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="L62" t="s" s="2">
         <v>363</v>
-      </c>
-      <c r="L62" t="s" s="2">
-        <v>364</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8349,11 +8346,11 @@
         <v>74</v>
       </c>
       <c r="X62" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="Y62" t="s" s="2">
         <v>365</v>
       </c>
-      <c r="Y62" t="s" s="2">
-        <v>366</v>
-      </c>
       <c r="Z62" t="s" s="2">
         <v>43</v>
       </c>
@@ -8370,7 +8367,7 @@
         <v>43</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>41</v>
@@ -8388,18 +8385,18 @@
         <v>43</v>
       </c>
       <c r="AK62" t="s" s="2">
+        <v>366</v>
+      </c>
+      <c r="AL62" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM62" t="s" s="2">
         <v>367</v>
-      </c>
-      <c r="AL62" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM62" t="s" s="2">
-        <v>368</v>
       </c>
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8422,13 +8419,13 @@
         <v>43</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K63" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="L63" t="s" s="2">
         <v>370</v>
-      </c>
-      <c r="L63" t="s" s="2">
-        <v>371</v>
       </c>
       <c r="M63" s="2"/>
       <c r="N63" s="2"/>
@@ -8458,11 +8455,11 @@
         <v>74</v>
       </c>
       <c r="X63" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="Y63" t="s" s="2">
         <v>372</v>
       </c>
-      <c r="Y63" t="s" s="2">
-        <v>373</v>
-      </c>
       <c r="Z63" t="s" s="2">
         <v>43</v>
       </c>
@@ -8479,7 +8476,7 @@
         <v>43</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>41</v>
@@ -8497,18 +8494,18 @@
         <v>43</v>
       </c>
       <c r="AK63" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="AL63" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM63" t="s" s="2">
         <v>374</v>
-      </c>
-      <c r="AL63" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM63" t="s" s="2">
-        <v>375</v>
       </c>
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8531,13 +8528,13 @@
         <v>43</v>
       </c>
       <c r="J64" t="s" s="2">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="K64" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="L64" t="s" s="2">
         <v>377</v>
-      </c>
-      <c r="L64" t="s" s="2">
-        <v>378</v>
       </c>
       <c r="M64" s="2"/>
       <c r="N64" s="2"/>
@@ -8588,7 +8585,7 @@
         <v>43</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>41</v>
@@ -8606,18 +8603,18 @@
         <v>43</v>
       </c>
       <c r="AK64" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="AL64" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM64" t="s" s="2">
         <v>379</v>
-      </c>
-      <c r="AL64" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM64" t="s" s="2">
-        <v>380</v>
       </c>
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
@@ -8640,13 +8637,13 @@
         <v>43</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K65" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="L65" t="s" s="2">
         <v>382</v>
-      </c>
-      <c r="L65" t="s" s="2">
-        <v>383</v>
       </c>
       <c r="M65" s="2"/>
       <c r="N65" s="2"/>
@@ -8673,14 +8670,14 @@
         <v>43</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X65" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="Y65" t="s" s="2">
         <v>384</v>
       </c>
-      <c r="Y65" t="s" s="2">
-        <v>385</v>
-      </c>
       <c r="Z65" t="s" s="2">
         <v>43</v>
       </c>
@@ -8697,7 +8694,7 @@
         <v>43</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>41</v>
@@ -8715,18 +8712,18 @@
         <v>43</v>
       </c>
       <c r="AK65" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="AL65" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM65" t="s" s="2">
         <v>386</v>
-      </c>
-      <c r="AL65" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM65" t="s" s="2">
-        <v>387</v>
       </c>
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8749,16 +8746,16 @@
         <v>43</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="K66" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="L66" t="s" s="2">
         <v>389</v>
       </c>
-      <c r="L66" t="s" s="2">
+      <c r="M66" t="s" s="2">
         <v>390</v>
-      </c>
-      <c r="M66" t="s" s="2">
-        <v>391</v>
       </c>
       <c r="N66" s="2"/>
       <c r="O66" t="s" s="2">
@@ -8808,7 +8805,7 @@
         <v>43</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>41</v>
@@ -8826,7 +8823,7 @@
         <v>43</v>
       </c>
       <c r="AK66" t="s" s="2">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="AL66" t="s" s="2">
         <v>43</v>
@@ -8837,7 +8834,7 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8863,10 +8860,10 @@
         <v>52</v>
       </c>
       <c r="K67" t="s" s="2">
+        <v>139</v>
+      </c>
+      <c r="L67" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="L67" t="s" s="2">
-        <v>141</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8917,7 +8914,7 @@
         <v>43</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>41</v>
@@ -8935,7 +8932,7 @@
         <v>43</v>
       </c>
       <c r="AK67" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL67" t="s" s="2">
         <v>43</v>
@@ -8946,11 +8943,11 @@
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -8972,13 +8969,13 @@
         <v>95</v>
       </c>
       <c r="K68" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L68" t="s" s="2">
         <v>144</v>
       </c>
-      <c r="L68" t="s" s="2">
-        <v>145</v>
-      </c>
       <c r="M68" t="s" s="2">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" t="s" s="2">
@@ -9028,7 +9025,7 @@
         <v>43</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>41</v>
@@ -9046,7 +9043,7 @@
         <v>43</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AL68" t="s" s="2">
         <v>43</v>
@@ -9057,11 +9054,11 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9083,16 +9080,16 @@
         <v>95</v>
       </c>
       <c r="K69" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="L69" t="s" s="2">
         <v>149</v>
       </c>
-      <c r="L69" t="s" s="2">
-        <v>150</v>
-      </c>
       <c r="M69" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="N69" t="s" s="2">
         <v>111</v>
-      </c>
-      <c r="N69" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="O69" t="s" s="2">
         <v>43</v>
@@ -9141,7 +9138,7 @@
         <v>43</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>41</v>
@@ -9170,7 +9167,7 @@
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9193,13 +9190,13 @@
         <v>43</v>
       </c>
       <c r="J70" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="K70" t="s" s="2">
         <v>397</v>
       </c>
-      <c r="K70" t="s" s="2">
+      <c r="L70" t="s" s="2">
         <v>398</v>
-      </c>
-      <c r="L70" t="s" s="2">
-        <v>399</v>
       </c>
       <c r="M70" s="2"/>
       <c r="N70" s="2"/>
@@ -9250,7 +9247,7 @@
         <v>43</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>50</v>
@@ -9265,21 +9262,21 @@
         <v>62</v>
       </c>
       <c r="AJ70" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="AK70" t="s" s="2">
+        <v>253</v>
+      </c>
+      <c r="AL70" t="s" s="2">
         <v>400</v>
       </c>
-      <c r="AK70" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="AL70" t="s" s="2">
+      <c r="AM70" t="s" s="2">
         <v>401</v>
-      </c>
-      <c r="AM70" t="s" s="2">
-        <v>402</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9305,13 +9302,13 @@
         <v>70</v>
       </c>
       <c r="K71" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="L71" t="s" s="2">
         <v>404</v>
       </c>
-      <c r="L71" t="s" s="2">
+      <c r="M71" t="s" s="2">
         <v>405</v>
-      </c>
-      <c r="M71" t="s" s="2">
-        <v>406</v>
       </c>
       <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
@@ -9337,14 +9334,14 @@
         <v>43</v>
       </c>
       <c r="W71" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="X71" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="Y71" t="s" s="2">
         <v>407</v>
       </c>
-      <c r="Y71" t="s" s="2">
-        <v>408</v>
-      </c>
       <c r="Z71" t="s" s="2">
         <v>43</v>
       </c>
@@ -9361,7 +9358,7 @@
         <v>43</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>41</v>
@@ -9379,7 +9376,7 @@
         <v>43</v>
       </c>
       <c r="AK71" t="s" s="2">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="AL71" t="s" s="2">
         <v>43</v>
@@ -9390,7 +9387,7 @@
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
@@ -9413,16 +9410,16 @@
         <v>43</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="K72" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="L72" t="s" s="2">
         <v>411</v>
       </c>
-      <c r="L72" t="s" s="2">
+      <c r="M72" t="s" s="2">
         <v>412</v>
-      </c>
-      <c r="M72" t="s" s="2">
-        <v>413</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" t="s" s="2">
@@ -9448,14 +9445,14 @@
         <v>43</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="X72" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="Y72" t="s" s="2">
         <v>414</v>
       </c>
-      <c r="Y72" t="s" s="2">
-        <v>415</v>
-      </c>
       <c r="Z72" t="s" s="2">
         <v>43</v>
       </c>
@@ -9472,7 +9469,7 @@
         <v>43</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>41</v>
@@ -9501,7 +9498,7 @@
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9524,13 +9521,13 @@
         <v>43</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="K73" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="L73" t="s" s="2">
         <v>417</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>418</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9581,7 +9578,7 @@
         <v>43</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>41</v>
@@ -9599,7 +9596,7 @@
         <v>43</v>
       </c>
       <c r="AK73" t="s" s="2">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="AL73" t="s" s="2">
         <v>43</v>
@@ -9610,7 +9607,7 @@
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9633,13 +9630,13 @@
         <v>43</v>
       </c>
       <c r="J74" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="K74" t="s" s="2">
         <v>420</v>
       </c>
-      <c r="K74" t="s" s="2">
+      <c r="L74" t="s" s="2">
         <v>421</v>
-      </c>
-      <c r="L74" t="s" s="2">
-        <v>422</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9690,7 +9687,7 @@
         <v>43</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>41</v>
@@ -9705,21 +9702,21 @@
         <v>62</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="AK74" t="s" s="2">
+        <v>422</v>
+      </c>
+      <c r="AL74" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="AM74" t="s" s="2">
         <v>423</v>
-      </c>
-      <c r="AL74" t="s" s="2">
-        <v>43</v>
-      </c>
-      <c r="AM74" t="s" s="2">
-        <v>424</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9742,16 +9739,16 @@
         <v>43</v>
       </c>
       <c r="J75" t="s" s="2">
+        <v>425</v>
+      </c>
+      <c r="K75" t="s" s="2">
         <v>426</v>
       </c>
-      <c r="K75" t="s" s="2">
+      <c r="L75" t="s" s="2">
         <v>427</v>
       </c>
-      <c r="L75" t="s" s="2">
+      <c r="M75" t="s" s="2">
         <v>428</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>429</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
@@ -9801,7 +9798,7 @@
         <v>43</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>41</v>
@@ -9816,10 +9813,10 @@
         <v>62</v>
       </c>
       <c r="AJ75" t="s" s="2">
+        <v>429</v>
+      </c>
+      <c r="AK75" t="s" s="2">
         <v>430</v>
-      </c>
-      <c r="AK75" t="s" s="2">
-        <v>431</v>
       </c>
       <c r="AL75" t="s" s="2">
         <v>43</v>
